--- a/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/相对影响程度.xlsx
+++ b/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/相对影响程度.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0731698207956307</v>
+        <v>0.1520620209558173</v>
       </c>
     </row>
     <row r="3">
@@ -464,24 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>售前服务</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.648731375193532</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>个人体验</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>0.7881772517100991</v>
+      <c r="C3" t="n">
+        <v>0.2608022221420329</v>
       </c>
     </row>
   </sheetData>
